--- a/References/Gantt.xlsx
+++ b/References/Gantt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C85776-978D-4FC0-916B-2A33F292F3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A40FE6-E0BE-46C5-AA85-7EC871EE1BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="-135" windowWidth="37740" windowHeight="16470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6300" yWindow="1755" windowWidth="19200" windowHeight="11490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planeador de Projetos" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ATIVIDADE</t>
   </si>
@@ -99,57 +99,6 @@
         <family val="2"/>
       </rPr>
       <t>de Conclusão</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Real (para além do plano</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Corbel"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Corbel"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>de Conclusão (para além do plano)</t>
     </r>
   </si>
   <si>
@@ -471,7 +420,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -526,18 +475,45 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="16" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="17" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="18" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
       <alignment vertical="center"/>
     </xf>
@@ -546,39 +522,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -991,8 +934,8 @@
   </sheetPr>
   <dimension ref="B1:BO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AS11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1009,7 +952,7 @@
   <sheetData>
     <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -1018,11 +961,11 @@
       <c r="G1" s="12"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1030,73 +973,51 @@
         <v>6</v>
       </c>
       <c r="J2" s="15"/>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="29"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="28"/>
       <c r="P2" s="16"/>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="31" t="s">
+      <c r="V2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2"/>
     </row>
     <row r="3" spans="2:67" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="20" t="s">
-        <v>20</v>
+      <c r="H3" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
@@ -1119,7 +1040,7 @@
       <c r="AA3" s="10"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
@@ -1307,13 +1228,13 @@
       </c>
     </row>
     <row r="5" spans="2:67" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="35">
+      <c r="B5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="21">
         <v>6</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="21">
         <v>6</v>
       </c>
       <c r="E5" s="7">
@@ -1325,13 +1246,13 @@
       </c>
     </row>
     <row r="6" spans="2:67" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="21">
         <v>12</v>
       </c>
-      <c r="C6" s="35">
-        <v>12</v>
-      </c>
-      <c r="D6" s="35">
+      <c r="D6" s="21">
         <v>1</v>
       </c>
       <c r="E6" s="7"/>
@@ -1341,13 +1262,13 @@
       </c>
     </row>
     <row r="7" spans="2:67" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="21">
         <v>13</v>
       </c>
-      <c r="C7" s="35">
-        <v>13</v>
-      </c>
-      <c r="D7" s="35">
+      <c r="D7" s="21">
         <v>2</v>
       </c>
       <c r="E7" s="7"/>
@@ -1357,13 +1278,13 @@
       </c>
     </row>
     <row r="8" spans="2:67" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="35">
+      <c r="B8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="21">
         <v>14</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="21">
         <v>8</v>
       </c>
       <c r="E8" s="7"/>
@@ -1373,13 +1294,13 @@
       </c>
     </row>
     <row r="9" spans="2:67" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="35">
+      <c r="B9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="21">
         <v>22</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="21">
         <v>2</v>
       </c>
       <c r="E9" s="7"/>
@@ -1389,13 +1310,13 @@
       </c>
     </row>
     <row r="10" spans="2:67" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="35">
+      <c r="B10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="21">
         <v>24</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="21">
         <v>2</v>
       </c>
       <c r="E10" s="7"/>
@@ -1405,13 +1326,13 @@
       </c>
     </row>
     <row r="11" spans="2:67" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="35">
+      <c r="B11" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="21">
         <v>26</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="21">
         <v>1</v>
       </c>
       <c r="E11" s="7"/>
@@ -1547,18 +1468,16 @@
       <c r="G30" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="AJ2:AS2"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AB2:AH2"/>
+  <mergeCells count="9">
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Z2"/>
   </mergeCells>
   <conditionalFormatting sqref="B31:BO31">
     <cfRule type="expression" dxfId="9" priority="2">
@@ -1596,7 +1515,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="16">
+  <dataValidations count="14">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="O planeador de projetos utiliza períodos para intervalos. Início=1 é o período 1 e duração=5 significa que o projeto abrange 5 períodos a contar do período de início. Introduza dados em B5 para atualizar o gráfico" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Introduza um valor de 1 a 60 ou selecione um período da lista. Prima CANCELAR, ALT+SETA PARA BAIXO e, em seguida, ENTER para selecionar um valor" prompt="Introduza um período num intervalo de 1 a 60 ou selecione um período a partir da lista. Prima ALT+SETA PARA BAIXO para navegar na lista e, em seguida, ENTER para selecionar um valor" sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
@@ -1604,8 +1523,6 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta célula de legenda indica a duração do plano" sqref="J2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta célula de legenda indica a duração real" sqref="P2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta célula de legenda indica a percentagem de conclusão do projeto" sqref="U2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta célula de legenda indica a duração real para além do plano" sqref="AA2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta célula de legenda indica a percentagem de conclusão do projeto para além do plano" sqref="AI2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Os períodos estão traçados de 1 a 60, com início na célula H4 até à célula BO4 " sqref="H3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Introduza a atividade na coluna B, com início na célula B5_x000a_" sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Introduza o período de início do plano na coluna C, com início na célula C5" sqref="C3:C4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>

--- a/References/Gantt.xlsx
+++ b/References/Gantt.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A40FE6-E0BE-46C5-AA85-7EC871EE1BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0C534E-EF73-41BD-850E-24D13A66C35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="1755" windowWidth="19200" windowHeight="11490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="3690" windowWidth="19200" windowHeight="11490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planeador de Projetos" sheetId="1" r:id="rId1"/>
@@ -484,21 +484,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -511,17 +514,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -934,8 +934,8 @@
   </sheetPr>
   <dimension ref="B1:BO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AD11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -970,50 +970,50 @@
         <v>5</v>
       </c>
       <c r="H2" s="14">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J2" s="15"/>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="29"/>
       <c r="P2" s="16"/>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="28"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="29"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="22" t="s">
+      <c r="V2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="30"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="33"/>
       <c r="AA2"/>
     </row>
     <row r="3" spans="2:67" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="26" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="18" t="s">
@@ -1040,7 +1040,7 @@
       <c r="AA3" s="10"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
@@ -1240,7 +1240,9 @@
       <c r="E5" s="7">
         <v>6</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7">
+        <v>9</v>
+      </c>
       <c r="G5" s="8">
         <v>0</v>
       </c>
@@ -1469,15 +1471,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Z2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Z2"/>
   </mergeCells>
   <conditionalFormatting sqref="B31:BO31">
     <cfRule type="expression" dxfId="9" priority="2">

--- a/References/Gantt.xlsx
+++ b/References/Gantt.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0C534E-EF73-41BD-850E-24D13A66C35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D588897-10E2-463E-AAC3-927301B36BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="3690" windowWidth="19200" windowHeight="11490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planeador de Projetos" sheetId="1" r:id="rId1"/>
@@ -487,6 +487,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
       <alignment vertical="center"/>
     </xf>
@@ -495,33 +522,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -935,7 +935,7 @@
   <dimension ref="B1:BO30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -970,50 +970,50 @@
         <v>5</v>
       </c>
       <c r="H2" s="14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J2" s="15"/>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="29"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="26"/>
       <c r="P2" s="16"/>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="29"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="26"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="31" t="s">
+      <c r="V2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="33"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="30"/>
       <c r="AA2"/>
     </row>
     <row r="3" spans="2:67" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="22" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="18" t="s">
@@ -1040,12 +1040,12 @@
       <c r="AA3" s="10"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
       <c r="H4" s="3">
         <v>6</v>
       </c>

--- a/References/Gantt.xlsx
+++ b/References/Gantt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D588897-10E2-463E-AAC3-927301B36BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1E5625-6FD4-46DE-8B83-F155CA14019E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11865" yWindow="2715" windowWidth="19200" windowHeight="11490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planeador de Projetos" sheetId="1" r:id="rId1"/>
@@ -935,7 +935,7 @@
   <dimension ref="B1:BO30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -970,7 +970,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="14">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="24" t="s">

--- a/References/Gantt.xlsx
+++ b/References/Gantt.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1E5625-6FD4-46DE-8B83-F155CA14019E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09C6590-ECDF-47E0-938B-F72C79778FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11865" yWindow="2715" windowWidth="19200" windowHeight="11490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planeador de Projetos" sheetId="1" r:id="rId1"/>
@@ -935,7 +935,7 @@
   <dimension ref="B1:BO30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -970,7 +970,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="14">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="24" t="s">

--- a/References/Gantt.xlsx
+++ b/References/Gantt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09C6590-ECDF-47E0-938B-F72C79778FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18360539-008C-40CE-AF59-512032A9D5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planeador de Projetos" sheetId="1" r:id="rId1"/>
@@ -935,7 +935,7 @@
   <dimension ref="B1:BO30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -970,7 +970,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="14">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="24" t="s">
